--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject16.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject16.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.70303173535771024</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.58305525758851018</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.5258112752145454</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.65356179577681284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.62970186641587622</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.69689935230941236</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.50338052895986762</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>0</v>
+        <v>0.91687916922947577</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.73569108417891793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.99828577547460617</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.72844068033737464</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.80654828439374404</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.57360488653202291</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.57231144135010115</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.76888407728632147</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.75842896922931591</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.78269689057981051</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>0</v>
+        <v>0.89856281790095416</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>0</v>
+        <v>0.64925163722237977</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>0</v>
+        <v>0.76170479743128405</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>0</v>
+        <v>0.69335414966220354</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0</v>
+        <v>0.71534472344688393</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.57022120199168658</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.86887771086717724</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.65804988920346763</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>0</v>
+        <v>0.81801494810644204</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>0</v>
+        <v>0.8607864092652312</v>
       </c>
       <c r="AP5" s="0">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="BI5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="0">
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.50568805919717019</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.89596810102910651</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.70212629207563948</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.85971721867524531</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0</v>
+        <v>0.98860212738327913</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.70075770186715247</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.77012186923877324</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0</v>
+        <v>0.97969424591308607</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.50675419414855971</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1582,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>0.65355167848039875</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.65959905980248301</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.70880880131386204</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.66274256929590403</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.60885672097395371</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>0</v>
+        <v>0.71273150068414992</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.7726280348804746</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.59473499563190146</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="0">
-        <v>0</v>
+        <v>0.87701589081309406</v>
       </c>
       <c r="AB10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.73594594102690292</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.86089167528985211</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.60527691218681845</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0</v>
+        <v>0.90998311145763511</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.58602822704269264</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.70727713203801201</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.62688876337323673</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.82298593288775646</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.64545993266656421</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>0.6401147065047631</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>0</v>
+        <v>0.70067009871941344</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.9719502886205057</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.59893910146038154</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.91900756099613878</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.99582967142846146</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.55060351587244249</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.51159834743968191</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.69055259579008799</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.56959059567135562</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.98630314260204188</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.51407825661502282</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="0">
-        <v>0</v>
+        <v>0.93187854591150998</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.69954808414180603</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.8313203494363075</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.64015412252493786</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0</v>
+        <v>0.98933542128628682</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.51084941830570973</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.74577242429555435</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.72738144273843641</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.65993193894179336</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.59507827455169648</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.76172584254291753</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0</v>
+        <v>0.95287165322746459</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4093,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.57096804772324927</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.85175604087254575</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>0.71997206660505186</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.90486696222199225</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.69322930884961242</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.77300331926640897</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.51374861427527052</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0</v>
+        <v>0.77470618200071262</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.67513369824623681</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.83843010686868169</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.96202227346672764</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>1</v>
+        <v>0.88064301928996591</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>0.75853277876851677</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.82924603998019664</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.75137318026530608</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.96951374399840051</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>0</v>
+        <v>0.89182257807799026</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>0</v>
+        <v>0.9250502052350158</v>
       </c>
       <c r="AY23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0</v>
+        <v>0.75790028093167006</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4923,25 +4923,25 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0</v>
+        <v>0.97581572742787037</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.59716920960334463</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.81591252633256195</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.80668440390423823</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.95500668980484327</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.5622528025206287</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.86120182712697613</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.53745902700123405</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>0.84420008840726768</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>0.55440584051632991</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.59377842603819442</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.69444666994571103</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.69985668627995956</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>0</v>
+        <v>0.60426495462390029</v>
       </c>
       <c r="K27" s="0">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.9287102066172972</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.75890575227164514</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0</v>
+        <v>0.77702424984977458</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0</v>
+        <v>0.58335638663967826</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0.93951848561134788</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5765,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.71002137405750188</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.94518876854336642</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.96153903967709486</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.90265240970830796</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.68165735427150209</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.91460764404555628</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0</v>
+        <v>0.6000218749533931</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6156,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.8580618738488307</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.7857185407965892</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.52842735280800834</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="BL30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0</v>
+        <v>0.80404111560157232</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.73371249389376547</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.84623341663100038</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0</v>
+        <v>0.62874985179304632</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.64008268075780728</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.71546202996171882</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,22 +6810,22 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.66052685347639395</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.91216300708269227</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.83778111834705515</v>
       </c>
       <c r="AJ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="0">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="0">
-        <v>0</v>
+        <v>0.50771623138025102</v>
       </c>
       <c r="AS33" s="0">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AU33" s="0">
-        <v>0</v>
+        <v>0.5759076346276748</v>
       </c>
       <c r="AV33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0</v>
+        <v>0.59547175873303138</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.80782072506324654</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.87443087114126539</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.89732427348232258</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.9654419043166822</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.96377621370789301</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.95851614295975041</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.51709796305285993</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.84451259052747085</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0</v>
+        <v>0.72220418177979284</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7434,22 +7434,22 @@
         <v>0</v>
       </c>
       <c r="AG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.91123222877881727</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.81771391530359328</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.71984890765112197</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.9863406027914996</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7646,28 +7646,28 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.70473110619615043</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.80368985519704128</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>0</v>
+        <v>0.64314810793110477</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.95433044155043278</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.77103544018363701</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.87880374799771355</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="BF38" s="0">
-        <v>0</v>
+        <v>0.79992673029475969</v>
       </c>
       <c r="BG38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.94125277351428038</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0</v>
+        <v>0.56065315928219084</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
       </c>
       <c r="BK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="0">
         <v>0</v>
@@ -8270,22 +8270,22 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>0</v>
+        <v>0.52636948303098019</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.84501997295949116</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.85860249796022536</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>0</v>
+        <v>0.91347554484930538</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.90340388230972746</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.83045188624703425</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.99981109238863963</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.74120938868393738</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8682,28 +8682,28 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.97449440139123777</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.7324489320095422</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.58815849070691972</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.86282171591465429</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.5798624312087941</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.92121335163667217</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.61649517376407459</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.59846309537009468</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.54016708151074011</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="0">
-        <v>0</v>
+        <v>0.52268856968981436</v>
       </c>
       <c r="AH44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.79213579092962738</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.87997355866695703</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.87571687161571199</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.89343241891399972</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>0</v>
+        <v>0.89630410726717291</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.63089420513672101</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.52066084107375721</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.86659165252714154</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.67159526225280541</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.97207178328091504</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.86951550470470962</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>0</v>
+        <v>0.86821051467633303</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="0">
-        <v>0</v>
+        <v>0.52455585065970678</v>
       </c>
       <c r="AH47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.66160095816357734</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.8869263922816002</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.68930102012867134</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.96312791691848643</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.6986728605282575</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>0</v>
+        <v>0.72180620700581777</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.51419910425366444</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.80086314112351631</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.78399157008115639</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>0</v>
+        <v>0.75732540106623936</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.51192112903752174</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.51014411888552713</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.71800743812401324</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
+        <v>0.51819858806477304</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.84873289309200406</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.54623778147965329</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.80854032479353011</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
+        <v>0.6442132735565953</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.89114312048620414</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.9060243448670392</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.91684808795884831</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.73933604737827729</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.51401190424650989</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>0</v>
+        <v>0.75723803086655184</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.65709624449766268</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.79658314614446346</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.81284599113518041</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0</v>
+        <v>0.79935801427401487</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.5161182476750672</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.59629350301193296</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.70854221279475293</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>0.73072985742244023</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.84194436022268104</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.70173241193108926</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.800119168310784</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.56843969372218184</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0</v>
+        <v>0.74110088829043497</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.67516169621210942</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.96615090670605985</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.83003347254328985</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>0</v>
+        <v>0.70530326898000062</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.94963001356646037</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.73742483875305309</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.96821210878717068</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.91162182235264089</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.6307818228055212</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.50317384118738628</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.54308807930441771</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0</v>
+        <v>0.98788542204331953</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.7253964352526332</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0</v>
+        <v>0.90648231460065332</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.80601852128112439</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.7657907615169488</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.85465521494583685</v>
       </c>
       <c r="BL61" s="0">
-        <v>0</v>
+        <v>0.68693692487451419</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="AG62" s="0">
-        <v>0</v>
+        <v>0.59653101165679245</v>
       </c>
       <c r="AH62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.79397069741565474</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.55799740942993725</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.95305120059313164</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.83697652285103152</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.56990948921074158</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.82484506774366229</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="0">
         <v>0</v>
@@ -13286,28 +13286,28 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0</v>
+        <v>0.56683064812283224</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.50156384359252959</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.5642315759297325</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.60049129893238873</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0</v>
+        <v>0.82360472181367672</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0</v>
+        <v>0.78848681917325769</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>0</v>
+        <v>0.91377039901967738</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13498,22 +13498,22 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.70097797290155173</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.59993739481043995</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.52728218645930225</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.99323285610133016</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.80006302341358904</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.6507730628984284</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.754174144953905</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.60008309344936384</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.57650283764234989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.70511613568263609</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.90976282809818232</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14119,16 +14119,16 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.65333163591107524</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject16.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject16.xlsx
@@ -134,7 +134,7 @@
         <v>0.70303173535771024</v>
       </c>
       <c r="C1" s="0">
-        <v>0.58305525758851018</v>
+        <v>0.99828577547460617</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.5258112752145454</v>
+        <v>0.754174144953905</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.65356179577681284</v>
+        <v>0.70511613568263609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.62970186641587622</v>
+        <v>0.70303173535771024</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.69689935230941236</v>
+        <v>0.72844068033737464</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50338052895986762</v>
+        <v>0.57231144135010115</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.73569108417891793</v>
+        <v>0.90976282809818232</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0.57231144135010115</v>
       </c>
       <c r="C4" s="0">
-        <v>0.76888407728632147</v>
+        <v>0.80654828439374404</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.75842896922931591</v>
+        <v>0.86887771086717724</v>
       </c>
       <c r="F4" s="0">
         <v>0.78269689057981051</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.76170479743128405</v>
+        <v>0.86821051467633303</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.57022120199168658</v>
+        <v>0.57360488653202291</v>
       </c>
       <c r="D5" s="0">
         <v>0.86887771086717724</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.65804988920346763</v>
+        <v>0.89596810102910651</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>0.8607864092652312</v>
+        <v>0.91347554484930538</v>
       </c>
       <c r="AP5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50568805919717019</v>
+        <v>0.78269689057981051</v>
       </c>
       <c r="E6" s="0">
         <v>0.89596810102910651</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.70075770186715247</v>
+        <v>0.70212629207563948</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0.97969424591308607</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.50675419414855971</v>
+        <v>0.9863406027914996</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.65355167848039875</v>
+        <v>0.81801494810644204</v>
       </c>
       <c r="F8" s="0">
-        <v>0.65959905980248301</v>
+        <v>0.85971721867524531</v>
       </c>
       <c r="G8" s="0">
-        <v>0.70880880131386204</v>
+        <v>0.77012186923877324</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.66274256929590403</v>
+        <v>0.7726280348804746</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.60885672097395371</v>
+        <v>0.73594594102690292</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>0.71273150068414992</v>
+        <v>0.72180620700581777</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.59473499563190146</v>
+        <v>0.86089167528985211</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.60527691218681845</v>
+        <v>0.62688876337323673</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.58602822704269264</v>
+        <v>0.82298593288775646</v>
       </c>
       <c r="N12" s="0">
-        <v>0.70727713203801201</v>
+        <v>0.9719502886205057</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0.6401147065047631</v>
+        <v>0.75853277876851677</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0.9719502886205057</v>
       </c>
       <c r="M14" s="0">
-        <v>0.59893910146038154</v>
+        <v>0.64545993266656421</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.55060351587244249</v>
+        <v>0.91900756099613878</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.51159834743968191</v>
+        <v>0.98630314260204188</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.69055259579008799</v>
+        <v>0.69954808414180603</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.56959059567135562</v>
+        <v>0.99582967142846146</v>
       </c>
       <c r="O16" s="0">
         <v>0.98630314260204188</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.51407825661502282</v>
+        <v>0.8313203494363075</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.51084941830570973</v>
+        <v>0.64015412252493786</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.65993193894179336</v>
+        <v>0.74577242429555435</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.59507827455169648</v>
+        <v>0.69322930884961242</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.76172584254291753</v>
+        <v>0.8580618738488307</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.57096804772324927</v>
+        <v>0.72738144273843641</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0.71997206660505186</v>
+        <v>0.97581572742787037</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.77300331926640897</v>
+        <v>0.82924603998019664</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.51374861427527052</v>
+        <v>0.7857185407965892</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0.77470618200071262</v>
+        <v>0.93187854591150998</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.67513369824623681</v>
+        <v>0.85175604087254575</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.88064301928996591</v>
+        <v>0.93951848561134788</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.82924603998019664</v>
       </c>
       <c r="V23" s="0">
-        <v>0.75137318026530608</v>
+        <v>0.83843010686868169</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.59716920960334463</v>
+        <v>0.96202227346672764</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.95500668980484327</v>
+        <v>0.96951374399840051</v>
       </c>
       <c r="X25" s="0">
-        <v>0.5622528025206287</v>
+        <v>0.81591252633256195</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0.86120182712697613</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.53745902700123405</v>
+        <v>0.9287102066172972</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>0.84420008840726768</v>
+        <v>0.89856281790095416</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0.55440584051632991</v>
+        <v>0.90998311145763511</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.59377842603819442</v>
+        <v>0.80668440390423823</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.69444666994571103</v>
+        <v>0.86120182712697613</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.69985668627995956</v>
+        <v>0.71002137405750188</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>0.60426495462390029</v>
+        <v>0.87701589081309406</v>
       </c>
       <c r="K27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.75890575227164514</v>
+        <v>0.94518876854336642</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0.77702424984977458</v>
+        <v>0.79935801427401487</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0.58335638663967826</v>
+        <v>0.70067009871941344</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.90265240970830796</v>
+        <v>0.96153903967709486</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0.6000218749533931</v>
+        <v>0.64925163722237977</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.52842735280800834</v>
+        <v>0.68165735427150209</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0.80404111560157232</v>
+        <v>0.89182257807799026</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.73371249389376547</v>
+        <v>0.91460764404555628</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0.62874985179304632</v>
+        <v>0.89630410726717291</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.64008268075780728</v>
+        <v>0.91216300708269227</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.71546202996171882</v>
+        <v>0.80782072506324654</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.66052685347639395</v>
+        <v>0.84623341663100038</v>
       </c>
       <c r="AF33" s="0">
         <v>0.91216300708269227</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.83778111834705515</v>
+        <v>0.96377621370789301</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="0">
-        <v>0.50771623138025102</v>
+        <v>0.52268856968981436</v>
       </c>
       <c r="AS33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0.59547175873303138</v>
+        <v>0.59653101165679245</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.87443087114126539</v>
+        <v>0.95851614295975041</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.89732427348232258</v>
+        <v>0.91123222877881727</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.51709796305285993</v>
+        <v>0.81771391530359328</v>
       </c>
       <c r="AK35" s="0">
         <v>0.84451259052747085</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0.72220418177979284</v>
+        <v>0.97969424591308607</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.71984890765112197</v>
+        <v>0.95433044155043278</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.70473110619615043</v>
+        <v>0.84451259052747085</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.95433044155043278</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.77103544018363701</v>
+        <v>0.80368985519704128</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.87880374799771355</v>
+        <v>0.97449440139123777</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0.56065315928219084</v>
+        <v>0.90648231460065332</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>0.52636948303098019</v>
+        <v>0.64314810793110477</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.90340388230972746</v>
+        <v>0.94125277351428038</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.83045188624703425</v>
+        <v>0.84501997295949116</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0.99981109238863963</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.74120938868393738</v>
+        <v>0.92121335163667217</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.7324489320095422</v>
+        <v>0.85860249796022536</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.58815849070691972</v>
+        <v>0.99981109238863963</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0.86282171591465429</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.5798624312087941</v>
+        <v>0.79213579092962738</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>0.92121335163667217</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.61649517376407459</v>
+        <v>0.86282171591465429</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.59846309537009468</v>
+        <v>0.87997355866695703</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.54016708151074011</v>
+        <v>0.63089420513672101</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0.63089420513672101</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.52066084107375721</v>
+        <v>0.87571687161571199</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.67159526225280541</v>
+        <v>0.89343241891399972</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="0">
-        <v>0.52455585065970678</v>
+        <v>0.5759076346276748</v>
       </c>
       <c r="AH47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.66160095816357734</v>
+        <v>0.86659165252714154</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.8869263922816002</v>
+        <v>0.97207178328091504</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.68930102012867134</v>
+        <v>0.86951550470470962</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.51419910425366444</v>
+        <v>0.96312791691848643</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0.80086314112351631</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.78399157008115639</v>
+        <v>0.84873289309200406</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>0.75732540106623936</v>
+        <v>0.9250502052350158</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.51192112903752174</v>
+        <v>0.6986728605282575</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.51014411888552713</v>
+        <v>0.80086314112351631</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0.51819858806477304</v>
+        <v>0.69335414966220354</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.84873289309200406</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.54623778147965329</v>
+        <v>0.71800743812401324</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.80854032479353011</v>
+        <v>0.9060243448670392</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0.6442132735565953</v>
+        <v>0.71534472344688393</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.89114312048620414</v>
+        <v>0.91684808795884831</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.73933604737827729</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.51401190424650989</v>
+        <v>0.5161182476750672</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>0.75723803086655184</v>
+        <v>0.91687916922947577</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.65709624449766268</v>
+        <v>0.73933604737827729</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0.81284599113518041</v>
+        <v>0.90486696222199225</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0.5161182476750672</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.59629350301193296</v>
+        <v>0.79658314614446346</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.70854221279475293</v>
+        <v>0.84194436022268104</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.73072985742244023</v>
+        <v>0.75790028093167006</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.800119168310784</v>
+        <v>0.96615090670605985</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.56843969372218184</v>
+        <v>0.94963001356646037</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0.74110088829043497</v>
+        <v>0.79992673029475969</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.67516169621210942</v>
+        <v>0.70173241193108926</v>
       </c>
       <c r="BE58" s="0">
         <v>0.96615090670605985</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.83003347254328985</v>
+        <v>0.91162182235264089</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>0.70530326898000062</v>
+        <v>0.91377039901967738</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0.91162182235264089</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.6307818228055212</v>
+        <v>0.73742483875305309</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.50317384118738628</v>
+        <v>0.7657907615169488</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.54308807930441771</v>
+        <v>0.79397069741565474</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.98788542204331953</v>
+        <v>0.98933542128628682</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0.7253964352526332</v>
+        <v>0.9654419043166822</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.80601852128112439</v>
+        <v>0.96821210878717068</v>
       </c>
       <c r="BH61" s="0">
         <v>0.7657907615169488</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.85465521494583685</v>
+        <v>0.95305120059313164</v>
       </c>
       <c r="BL61" s="0">
         <v>0.68693692487451419</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.55799740942993725</v>
+        <v>0.83697652285103152</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13286,22 +13286,22 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0.56683064812283224</v>
+        <v>0.68693692487451419</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.50156384359252959</v>
+        <v>0.56990948921074158</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.5642315759297325</v>
+        <v>0.59993739481043995</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.60049129893238873</v>
+        <v>0.99323285610133016</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0.82360472181367672</v>
+        <v>0.98860212738327913</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0.78848681917325769</v>
+        <v>0.95287165322746459</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.70097797290155173</v>
+        <v>0.82484506774366229</v>
       </c>
       <c r="BL65" s="0">
         <v>0.59993739481043995</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.52728218645930225</v>
+        <v>0.80006302341358904</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.60008309344936384</v>
+        <v>0.6507730628984284</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.57650283764234989</v>
+        <v>0.65333163591107524</v>
       </c>
     </row>
     <row r="68">
